--- a/Coverage Survey/South Sdan/IVM+ALB Coverage/F3_HouseHoldMember.xlsx
+++ b/Coverage Survey/South Sdan/IVM+ALB Coverage/F3_HouseHoldMember.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\South Sdan\IVM Coverage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbandubad\Repositories\dsa-forms\Coverage Survey\South Sdan\IVM+ALB Coverage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7325719E-AD4B-43EC-B087-9718EBC74666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -780,7 +779,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1193,7 +1192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1203,20 +1202,20 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.87890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.703125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="4" max="4" width="24.5859375" customWidth="1"/>
-    <col min="5" max="5" width="10.87890625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="36.703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.29296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.87890625" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -1270,7 +1269,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>34</v>
       </c>
@@ -1286,7 +1285,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>34</v>
       </c>
@@ -1302,7 +1301,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>34</v>
       </c>
@@ -1318,7 +1317,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
@@ -1337,7 +1336,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -1354,7 +1353,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
@@ -1377,7 +1376,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
@@ -1394,7 +1393,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>47</v>
       </c>
@@ -1413,7 +1412,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>64</v>
       </c>
@@ -1432,7 +1431,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>78</v>
       </c>
@@ -1451,7 +1450,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>80</v>
       </c>
@@ -1471,7 +1470,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="25.35" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1488,7 +1487,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>101</v>
       </c>
@@ -1509,7 +1508,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>101</v>
       </c>
@@ -1528,7 +1527,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>175</v>
       </c>
@@ -1549,7 +1548,7 @@
       </c>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>194</v>
       </c>
@@ -1570,7 +1569,7 @@
       </c>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="25.35" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>114</v>
       </c>
@@ -1591,7 +1590,7 @@
       </c>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" ht="25.35" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
@@ -1612,7 +1611,7 @@
       </c>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" ht="25.35" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>120</v>
       </c>
@@ -1631,7 +1630,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" ht="25.35" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>176</v>
       </c>
@@ -1648,7 +1647,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="25.35" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>34</v>
       </c>
@@ -1667,7 +1666,7 @@
       </c>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>161</v>
       </c>
@@ -1684,7 +1683,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="1:9" ht="25.35" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>204</v>
       </c>
@@ -1701,7 +1700,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>209</v>
       </c>
@@ -1718,7 +1717,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>9</v>
       </c>
@@ -1735,7 +1734,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>6</v>
       </c>
@@ -1750,7 +1749,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>7</v>
       </c>
@@ -1777,7 +1776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1787,14 +1786,14 @@
       <selection activeCell="B30" sqref="B30:B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="27.1171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.1171875" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1805,7 +1804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -1816,7 +1815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1827,7 +1826,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1838,7 +1837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>46</v>
       </c>
@@ -1849,7 +1848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
@@ -1860,7 +1859,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1871,7 +1870,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1882,7 +1881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -1893,7 +1892,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
@@ -1926,7 +1925,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
@@ -1937,7 +1936,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -1959,7 +1958,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -1970,7 +1969,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -1992,7 +1991,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -2003,7 +2002,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>79</v>
       </c>
@@ -2014,7 +2013,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>79</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>79</v>
       </c>
@@ -2036,7 +2035,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>79</v>
       </c>
@@ -2047,7 +2046,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>79</v>
       </c>
@@ -2058,7 +2057,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>79</v>
       </c>
@@ -2069,7 +2068,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>100</v>
       </c>
@@ -2080,7 +2079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>100</v>
       </c>
@@ -2091,7 +2090,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>100</v>
       </c>
@@ -2102,7 +2101,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>100</v>
       </c>
@@ -2113,7 +2112,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>102</v>
       </c>
@@ -2124,7 +2123,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>102</v>
       </c>
@@ -2135,7 +2134,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>102</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>102</v>
       </c>
@@ -2157,7 +2156,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>102</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
@@ -2179,7 +2178,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>102</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>102</v>
       </c>
@@ -2201,7 +2200,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>102</v>
       </c>
@@ -2212,7 +2211,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
@@ -2223,7 +2222,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>119</v>
       </c>
@@ -2234,7 +2233,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>119</v>
       </c>
@@ -2245,7 +2244,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>119</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>146</v>
       </c>
@@ -2267,7 +2266,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>146</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>146</v>
       </c>
@@ -2289,7 +2288,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>146</v>
       </c>
@@ -2300,7 +2299,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>146</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>146</v>
       </c>
@@ -2322,7 +2321,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>146</v>
       </c>
@@ -2333,7 +2332,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>146</v>
       </c>
@@ -2344,7 +2343,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>146</v>
       </c>
@@ -2355,7 +2354,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>146</v>
       </c>
@@ -2366,7 +2365,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>160</v>
       </c>
@@ -2377,7 +2376,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>160</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>160</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>174</v>
       </c>
@@ -2410,7 +2409,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>174</v>
       </c>
@@ -2421,7 +2420,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>174</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>174</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>174</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>174</v>
       </c>
@@ -2465,7 +2464,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>174</v>
       </c>
@@ -2476,7 +2475,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>193</v>
       </c>
@@ -2487,7 +2486,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>193</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>193</v>
       </c>
@@ -2509,7 +2508,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>193</v>
       </c>
@@ -2520,7 +2519,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>193</v>
       </c>
@@ -2531,7 +2530,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>203</v>
       </c>
@@ -2542,7 +2541,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>203</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>203</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>203</v>
       </c>
@@ -2575,7 +2574,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>203</v>
       </c>
@@ -2586,7 +2585,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>208</v>
       </c>
@@ -2597,7 +2596,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>208</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>208</v>
       </c>
@@ -2631,24 +2630,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.41015625" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -2663,7 +2662,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>129</v>
       </c>
